--- a/biology/Botanique/Heterococcaceae/Heterococcaceae.xlsx
+++ b/biology/Botanique/Heterococcaceae/Heterococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heterococcaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Tribonematales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heterococcaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Tribonematales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Heterococcus, de hetero, différent, (en référence ici, aux flagelles de longueurs différentes), et du grec κοκκοσ / kokkos, « graine ; pépin ; baie », littéralement « graines aux flagelles de longueurs différentes »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Heterococcus, de hetero, différent, (en référence ici, aux flagelles de longueurs différentes), et du grec κοκκοσ / kokkos, « graine ; pépin ; baie », littéralement « graines aux flagelles de longueurs différentes ».
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heterococcus sont des algues qui « laissent clairement apparaître la division en une partie rampante et une partie ascendante, bien que, chez les différentes espèces, les parties rampantes et ascendantes n'ont pas toujours la même épaisseur ou ne sont pas toujours nettement différenciées »[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heterococcus sont des algues qui « laissent clairement apparaître la division en une partie rampante et une partie ascendante, bien que, chez les différentes espèces, les parties rampantes et ascendantes n'ont pas toujours la même épaisseur ou ne sont pas toujours nettement différenciées ». 
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 avril 2022) :
 Aeronema J.W.Snow, 1911
 Capitulariella Pascher, 1944
 Chaetopedia Pascher, 1939
